--- a/excel4selenium.xlsx
+++ b/excel4selenium.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="795" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
     <sheet name="设计" sheetId="4" r:id="rId2"/>
     <sheet name="功能模板" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>目的：</t>
   </si>
@@ -42,9 +42,6 @@
     <t>功能测试人员</t>
   </si>
   <si>
-    <t>动作</t>
-  </si>
-  <si>
     <t>类似工具：</t>
   </si>
   <si>
@@ -57,21 +54,12 @@
     <t>robot framework，由于ride工具不支持python3，且功能较多学习成本较高</t>
   </si>
   <si>
-    <t>断言方式</t>
-  </si>
-  <si>
-    <t>断言值</t>
-  </si>
-  <si>
     <t>open chrome</t>
   </si>
   <si>
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>断言原</t>
-  </si>
-  <si>
     <t>tiltle</t>
   </si>
   <si>
@@ -84,57 +72,89 @@
     <t>click</t>
   </si>
   <si>
+    <t>action id</t>
+  </si>
+  <si>
+    <t>访问百度</t>
+  </si>
+  <si>
+    <t>跳转到新闻页</t>
+  </si>
+  <si>
+    <t>工具实现目标以及主要应用场景</t>
+  </si>
+  <si>
+    <t>name=tj_trnews</t>
+  </si>
+  <si>
+    <t>基本根据selenium来走</t>
+  </si>
+  <si>
+    <t>5、支持外部参数列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、支持简单的报表生成，例如html格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、支持断言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、支持基础页面元素的查找以及动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、支持多次循环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如csv读入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比与包含关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>case</t>
-  </si>
-  <si>
-    <t>action id</t>
-  </si>
-  <si>
-    <t>访问百度</t>
-  </si>
-  <si>
-    <t>跳转到新闻页</t>
-  </si>
-  <si>
-    <t>工具实现目标以及主要应用场景</t>
-  </si>
-  <si>
-    <t>循环条件</t>
-  </si>
-  <si>
-    <t>name=tj_trnews</t>
-  </si>
-  <si>
-    <t>路径/内容</t>
-  </si>
-  <si>
-    <t>1、多次重复的录入信息</t>
-  </si>
-  <si>
-    <t>因为很多时候前台要做一些数据，需要支持csv数据读入</t>
-  </si>
-  <si>
-    <t>2、基础页面元素的查找以及动作</t>
-  </si>
-  <si>
-    <t>基本根据selenium来走</t>
-  </si>
-  <si>
-    <t>3、需要支持断言</t>
-  </si>
-  <si>
-    <t>4、需要支持简单的报表生成，例如html格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert oral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -142,8 +162,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,8 +206,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -450,27 +477,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -486,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -494,157 +521,169 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
